--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
   <si>
     <t>Result</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Fri Nov 19 10:50:01 EST 2021</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 17:41:34 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 17:41:46 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 17:41:56 EDT 2022</t>
   </si>
 </sst>
 </file>
@@ -585,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -599,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -613,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
   <si>
     <t>Result</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Fri Oct 21 17:41:56 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:24:38 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:24:49 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:25:01 EDT 2022</t>
   </si>
 </sst>
 </file>
@@ -594,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -608,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -622,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="67">
   <si>
     <t>Result</t>
   </si>
@@ -199,6 +199,42 @@
   </si>
   <si>
     <t>Wed Nov 02 16:25:01 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:06:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:06:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:06:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:37:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:37:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:37:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:51:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:52:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:52:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:47:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:47:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:48:04 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -603,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -617,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -631,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="73">
   <si>
     <t>Result</t>
   </si>
@@ -235,6 +235,24 @@
   </si>
   <si>
     <t>Mon Jan 09 17:48:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:02:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:02:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:02:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:41:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:41:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:41:44 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -639,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -653,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -667,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="76">
   <si>
     <t>Result</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>Wed Feb 08 16:41:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:44:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:44:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:44:59 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -657,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -671,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -685,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="79">
   <si>
     <t>Result</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Wed Feb 15 12:44:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:11:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:11:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:12:04 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -666,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -680,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -694,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="82">
   <si>
     <t>Result</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>Thu Feb 16 12:12:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:55:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:55:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:55:33 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -675,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -689,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -703,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="94">
   <si>
     <t>Result</t>
   </si>
@@ -280,6 +280,42 @@
   </si>
   <si>
     <t>Tue Jul 11 12:55:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:46:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:46:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:46:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:09:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:09:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:10:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:19:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:19:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:19:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:11:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:11:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:12:07 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -684,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -698,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -712,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DA7B5324-C811-4451-8268-3C768E799AD0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3B4624E1-ABAA-4B5F-B7E1-B0D7E6D133FD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="13305" windowWidth="18075" xWindow="31860" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="1005"/>
+    <workbookView windowHeight="10740" windowWidth="18915" xWindow="7230" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Result</t>
   </si>
@@ -51,271 +51,67 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Estimated Tax</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Existing Liability w/Notice Number</t>
+  </si>
+  <si>
+    <t>Quarterly Estimated Tax</t>
+  </si>
+  <si>
+    <t>Extension Payment</t>
+  </si>
+  <si>
+    <t>New Tax Return Amount Due</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
   </si>
   <si>
     <t>Personal Income Tax</t>
   </si>
   <si>
-    <t>Extension Payments</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Tue Oct 19 13:36:43 EDT 2021</t>
-  </si>
-  <si>
-    <t>Tue Oct 19 13:37:04 EDT 2021</t>
-  </si>
-  <si>
-    <t>Tue Oct 19 13:38:35 EDT 2021</t>
+    <t>Mon Sep 04 11:59:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 12:00:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 12:00:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 12:00:38 EDT 2023</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 22:51:11 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 22:52:22 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 22:53:33 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:39:27 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:39:35 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:41:38 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:41:47 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:41:53 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:43:39 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:43:48 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:43:55 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:49:42 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:49:48 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:49:55 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Oct 22 17:44:39 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Oct 22 17:44:52 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Oct 22 17:45:04 EDT 2021</t>
-  </si>
-  <si>
-    <t>Wed Oct 27 17:08:49 EDT 2021</t>
-  </si>
-  <si>
-    <t>Wed Oct 27 17:09:02 EDT 2021</t>
-  </si>
-  <si>
-    <t>Wed Oct 27 17:09:13 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 01 10:49:19 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 01 10:49:29 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 01 10:49:39 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 05 18:17:30 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 05 18:17:41 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 05 18:17:51 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:16:51 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:17:01 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:17:11 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:17:00 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:17:10 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:17:20 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 10:49:40 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 10:49:51 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 10:50:01 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 17:41:34 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 17:41:46 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 17:41:56 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:24:38 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:24:49 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:25:01 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 14:06:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 14:06:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 14:06:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 16:37:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 16:37:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 16:37:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 06 18:51:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 06 18:52:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 06 18:52:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Jan 09 17:47:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Jan 09 17:47:54 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Jan 09 17:48:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:02:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:02:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:02:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:41:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:41:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:41:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:44:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:44:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:44:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:11:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:11:54 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:12:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:55:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:55:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:55:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 10:46:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 10:46:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 10:46:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:09:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:09:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:10:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:19:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:19:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:19:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:11:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:11:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:12:07 EDT 2023</t>
+    <t>Mon Sep 04 12:12:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 12:13:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 12:13:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 12:13:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 12:15:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 12:15:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 12:15:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 12:16:09 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -367,9 +163,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,11 +496,12 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="5" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,54 +511,86 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3B4624E1-ABAA-4B5F-B7E1-B0D7E6D133FD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F8B5134A-2E6E-4A60-9600-23C7379213B4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="10740" windowWidth="18915" xWindow="7230" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="4590"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -60,58 +60,58 @@
     <t>Quarterly Estimated Tax</t>
   </si>
   <si>
-    <t>Extension Payment</t>
-  </si>
-  <si>
     <t>New Tax Return Amount Due</t>
   </si>
   <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>Personal Income Tax</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:40:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:40:29 EDT 2023</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>PaymentType</t>
-  </si>
-  <si>
-    <t>Personal Income Tax</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 11:59:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:00:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:00:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:00:38 EDT 2023</t>
+    <t>Fri Sep 08 12:40:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:40:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Extension Payments</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Mon Sep 04 12:12:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:13:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:13:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:13:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:15:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:15:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:15:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:16:09 EDT 2023</t>
+    <t>Fri Sep 08 16:32:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:32:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:32:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:33:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:10:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:10:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:10:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:11:03 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
   <si>
     <t>Result</t>
   </si>
@@ -112,6 +112,42 @@
   </si>
   <si>
     <t>Fri Sep 08 18:11:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:53:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:53:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:54:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:54:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:05:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:05:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:05:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:05:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:03:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:03:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:04:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:04:21 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -523,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -540,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -557,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -574,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
   <si>
     <t>Result</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Mon Sep 11 14:04:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:27:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:28:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:28:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:28:39 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -576,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -593,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -610,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>Result</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Tue Sep 26 21:28:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:36:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:37:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:37:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:37:38 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -571,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -588,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -605,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -622,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="54">
   <si>
     <t>Result</t>
   </si>
@@ -172,6 +172,30 @@
   </si>
   <si>
     <t>Fri Sep 29 11:37:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:34:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:34:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:35:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:35:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:43:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:43:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:43:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:43:53 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -583,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -600,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -617,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -634,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
   <si>
     <t>Result</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Mon Oct 02 16:43:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:30:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:30:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:30:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:30:54 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -607,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -624,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -641,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -658,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
   <si>
     <t>Result</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>Fri Oct 06 11:30:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:46:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:46:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:47:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:47:19 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -619,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -636,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -653,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -670,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="66">
   <si>
     <t>Result</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>Mon Oct 09 22:47:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:52:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:52:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:52:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:53:00 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -631,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -648,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -665,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -682,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{F8B5134A-2E6E-4A60-9600-23C7379213B4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5E2D1533-C7C1-4CFE-B4E9-57A0AC095541}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="-120"/>
+    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="2460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Result</t>
   </si>
@@ -69,169 +69,34 @@
     <t>Personal Income Tax</t>
   </si>
   <si>
-    <t>Fri Sep 08 12:40:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 12:40:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 12:40:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 12:40:55 EDT 2023</t>
-  </si>
-  <si>
     <t>Extension Payments</t>
   </si>
   <si>
+    <t>Wed Nov 01 15:52:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:52:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:52:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:53:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>DONOTRUN</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Fri Sep 08 16:32:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 16:32:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 16:32:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 16:33:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:10:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:10:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:10:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:11:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:53:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:53:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:54:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:54:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:05:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:05:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:05:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:05:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:03:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:03:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:04:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:04:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:27:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:28:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:28:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:28:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:36:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:37:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:37:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:37:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:34:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:34:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:35:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:35:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:43:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:43:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:43:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:43:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:30:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:30:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:30:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:30:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:46:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:46:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:47:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:47:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:52:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:52:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:52:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:53:00 EDT 2023</t>
+    <t>Thu Dec 07 21:42:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:42:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:42:47 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -608,14 +473,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -643,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -660,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -677,13 +542,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -694,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Result</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Thu Dec 07 21:42:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:56:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:57:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:57:14 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -508,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -525,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -559,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>Result</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>Wed Dec 20 12:57:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:05:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:05:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:06:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:32:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:32:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:33:11 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -517,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -534,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -568,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5E2D1533-C7C1-4CFE-B4E9-57A0AC095541}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E829AFCB-3AE7-48FA-9A9B-E8BC0CED3A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="2460"/>
+    <workbookView xWindow="1680" yWindow="2580" windowWidth="24525" windowHeight="14010" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Result</t>
   </si>
@@ -72,65 +72,28 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:52:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:52:35 EDT 2023</t>
-  </si>
-  <si>
     <t>Wed Nov 01 15:52:48 EDT 2023</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:53:00 EDT 2023</t>
-  </si>
-  <si>
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:42:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:42:34 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:42:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:56:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:57:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:57:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:05:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:05:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:06:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:32:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:32:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:33:11 EST 2024</t>
+    <t>Thu Jan 25 17:46:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:46:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:47:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,22 +136,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -205,10 +168,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -243,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -295,7 +258,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -406,21 +369,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -437,7 +400,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -489,28 +452,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -552,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -569,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -586,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -598,9 +561,25 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E829AFCB-3AE7-48FA-9A9B-E8BC0CED3A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{322D5F86-CE64-4FFB-9F1B-0A52F0D554C3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2580" windowWidth="24525" windowHeight="14010" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="2325"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Result</t>
   </si>
@@ -78,22 +78,50 @@
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t>Thu Jan 25 17:46:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:46:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:47:05 EST 2024</t>
-  </si>
-  <si>
     <t>Estate Tax</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:36:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:37:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:37:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:37:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:37:45 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:43:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:43:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:44:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:44:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:44:33 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,22 +164,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -168,10 +196,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -206,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -258,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -369,21 +397,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,7 +428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -452,28 +480,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -498,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -515,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -549,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -562,24 +590,42 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Result</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>Fri Feb 02 19:44:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:25:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:26:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:26:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:26:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:26:51 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -526,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -543,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -577,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -594,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -611,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
   <si>
     <t>Result</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>Sat Feb 03 23:26:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:54:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:54:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:54:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:54:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:54:55 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -541,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -558,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -592,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -609,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -626,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
   <si>
     <t>Result</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>Sat Feb 17 22:54:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:09:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:09:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:10:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:11:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:12:11 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -556,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -573,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -607,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -624,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -641,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{322D5F86-CE64-4FFB-9F1B-0A52F0D554C3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CB4E3C-80D2-409D-98B0-7D1509626017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="2325"/>
+    <workbookView xWindow="30810" yWindow="990" windowWidth="24525" windowHeight="14010" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Result</t>
   </si>
@@ -75,76 +75,7 @@
     <t>Wed Nov 01 15:52:48 EDT 2023</t>
   </si>
   <si>
-    <t>DONOTRUN</t>
-  </si>
-  <si>
     <t>Estate Tax</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:36:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:37:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:37:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:37:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:37:45 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:43:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:43:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:44:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:44:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:44:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:25:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:26:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:26:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:26:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:26:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:54:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:54:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:54:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:54:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:54:55 EST 2024</t>
   </si>
   <si>
     <t>Fri Mar 08 01:09:01 EST 2024</t>
@@ -166,7 +97,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,22 +139,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -241,10 +171,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -279,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -331,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -442,21 +372,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -473,7 +403,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -525,28 +455,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -571,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -588,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -608,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -622,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -639,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -648,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -665,12 +595,12 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CB4E3C-80D2-409D-98B0-7D1509626017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B5F515E4-6016-4CB3-A930-ABE9BE6FC342}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="990" windowWidth="24525" windowHeight="14010" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="615"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Result</t>
   </si>
@@ -91,12 +91,19 @@
   </si>
   <si>
     <t>Fri Mar 08 01:12:11 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:05:16 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,22 +146,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -171,10 +178,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -209,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -261,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -372,21 +379,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -403,7 +410,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -455,15 +462,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -471,12 +478,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,9 +510,6 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
@@ -520,9 +524,6 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
@@ -535,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -554,9 +555,6 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -571,9 +569,6 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -588,9 +583,6 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -599,8 +591,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B5F515E4-6016-4CB3-A930-ABE9BE6FC342}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2901BD-0A89-498D-8362-BC12027A6165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="615"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Result</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Existing Liability w/Notice Number</t>
-  </si>
-  <si>
     <t>Quarterly Estimated Tax</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:52:48 EDT 2023</t>
-  </si>
-  <si>
     <t>Estate Tax</t>
   </si>
   <si>
@@ -93,17 +87,16 @@
     <t>Fri Mar 08 01:12:11 EST 2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Wed Mar 20 23:05:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Existing Liability with Notice/Invoice Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,22 +139,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -178,10 +171,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -216,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -379,21 +372,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -410,7 +403,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -462,28 +455,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -508,13 +501,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -522,13 +518,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,16 +535,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,13 +552,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,13 +569,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,18 +586,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2901BD-0A89-498D-8362-BC12027A6165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DE2901BD-0A89-498D-8362-BC12027A6165}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="1155"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Result</t>
   </si>
@@ -91,12 +91,34 @@
   </si>
   <si>
     <t>Existing Liability with Notice/Invoice Number</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:04:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:05:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:05:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:05:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:05:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:05:54 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,22 +161,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -171,10 +193,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -209,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -261,7 +283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -372,21 +394,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -403,7 +425,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -455,15 +477,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -471,12 +493,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -518,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -535,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -552,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -569,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -586,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -599,8 +621,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>Result</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>Mon Apr 08 18:05:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:04:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:04:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:04:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:04:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:05:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:05:21 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -523,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -540,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -557,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -574,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -591,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -608,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
   <si>
     <t>Result</t>
   </si>
@@ -130,6 +130,60 @@
   </si>
   <si>
     <t>Sun Oct 13 00:05:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:56:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:57:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:57:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:57:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:57:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:58:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:53:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:53:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:53:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:53:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:54:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:54:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:03:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:04:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:04:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:04:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:04:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:04:56 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -541,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -558,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -575,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -592,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -609,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -626,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DE2901BD-0A89-498D-8362-BC12027A6165}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2DE15590-06F4-42D5-B93D-F173F8A3312E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="1155"/>
+    <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Result</t>
   </si>
@@ -72,118 +72,46 @@
     <t>Estate Tax</t>
   </si>
   <si>
-    <t>Fri Mar 08 01:09:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:09:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:10:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:11:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:12:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:05:16 EDT 2024</t>
-  </si>
-  <si>
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
+    <t>Thu Nov 07 16:43:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:43:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:43:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:43:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:44:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:44:17 EST 2024</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Mon Apr 08 18:04:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:05:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:05:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:05:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:05:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:05:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:04:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:04:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:04:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:04:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:05:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:05:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:56:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:57:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:57:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:57:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:57:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:58:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:53:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:53:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:53:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:53:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:54:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:54:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:03:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:04:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:04:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:04:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:04:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:04:56 EDT 2024</t>
+    <t>Thu Nov 07 18:00:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:00:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:00:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:01:09 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -261,9 +189,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
@@ -301,7 +229,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -407,7 +335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -549,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,7 +488,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,13 +523,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -612,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -629,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -646,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -660,16 +588,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -677,13 +605,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Result</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Thu Nov 07 18:01:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:02:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:03:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:03:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:03:38 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -523,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -540,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -557,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -574,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2DE15590-06F4-42D5-B93D-F173F8A3312E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AD5D29EE-1D0E-46FA-AEE1-908DFDD62A4D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="-120"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Result</t>
   </si>
@@ -75,18 +75,6 @@
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
-    <t>Thu Nov 07 16:43:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:43:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:43:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:43:48 EST 2024</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -96,34 +84,37 @@
     <t>Thu Nov 07 16:44:17 EST 2024</t>
   </si>
   <si>
-    <t>DoNotRun</t>
+    <t>Tue Nov 12 18:02:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:03:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:03:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:03:38 EST 2024</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Thu Nov 07 18:00:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:00:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:00:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:01:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:02:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:03:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:03:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:03:38 EST 2024</t>
+    <t>Tue Jan 28 22:08:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:08:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:08:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:09:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:09:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:09:28 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -500,7 +491,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -552,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -569,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -586,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -600,13 +591,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -617,13 +608,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AD5D29EE-1D0E-46FA-AEE1-908DFDD62A4D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B2AADF-BB71-4D57-8FA9-ADF979A2A6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="-120"/>
+    <workbookView xWindow="32970" yWindow="1050" windowWidth="23235" windowHeight="14535" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Result</t>
   </si>
@@ -73,30 +73,6 @@
   </si>
   <si>
     <t>Existing Liability with Notice/Invoice Number</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:44:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:44:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:02:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:03:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:03:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:03:38 EST 2024</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Tue Jan 28 22:08:22 EST 2025</t>
@@ -121,7 +97,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,22 +139,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -196,10 +171,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -234,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -286,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -397,21 +372,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -428,7 +403,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -480,15 +455,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -496,12 +471,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -526,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -543,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -560,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -577,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -594,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -611,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -624,8 +599,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B2AADF-BB71-4D57-8FA9-ADF979A2A6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{29B2AADF-BB71-4D57-8FA9-ADF979A2A6A5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="32970" yWindow="1050" windowWidth="23235" windowHeight="14535" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
+    <workbookView windowHeight="14535" windowWidth="23235" xWindow="32970" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="1050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Result</t>
   </si>
@@ -91,12 +91,34 @@
   </si>
   <si>
     <t>Tue Jan 28 22:09:28 EST 2025</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:19:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:19:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:20:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:20:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:20:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:20:39 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,22 +161,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -171,10 +193,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -209,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -261,7 +283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -372,21 +394,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -403,7 +425,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -455,15 +477,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89B3EE-CDFD-48C7-AA85-7D2CDFC70A3F}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -471,12 +493,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -518,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -535,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -552,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -569,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -586,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -599,8 +621,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>Result</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>Tue Feb 11 20:20:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:03:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:03:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:03:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:04:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:04:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:04:35 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -523,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -540,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -557,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -574,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -591,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -608,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/TaxPayerSSNNoMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{29B2AADF-BB71-4D57-8FA9-ADF979A2A6A5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3E8D6EC3-01A7-40BE-BBB5-EA35CED4B9D1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="14535" windowWidth="23235" xWindow="32970" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="1050"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}" yWindow="-3945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Result</t>
   </si>
@@ -75,61 +75,40 @@
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
-    <t>Tue Jan 28 22:08:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:08:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:08:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:09:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:09:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:09:28 EST 2025</t>
+    <t>Mon Feb 24 23:03:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:03:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:03:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:04:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:04:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:04:35 EST 2025</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Tue Feb 11 20:19:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:19:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:20:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:20:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:20:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:20:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:03:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:03:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:03:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:04:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:04:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:04:35 EST 2025</t>
+    <t>Sat Oct 04 16:19:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:19:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:19:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:19:51 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -506,20 +485,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.453125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,12 +515,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -553,12 +532,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -570,12 +549,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -587,12 +566,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -604,15 +583,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -621,15 +600,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
